--- a/developFiles/demoUserData.xlsx
+++ b/developFiles/demoUserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\JavaProjects\LaboratoryManagementSystem\developFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7C44F-FF8E-4AA4-B3EA-D9061C6EC270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AAC8C3-041F-4E76-BD19-327FDA4D0CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="5475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7455" yWindow="6870" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,60 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+  </si>
+  <si>
+    <t>ROLE_TECHNICIAN</t>
+  </si>
+  <si>
+    <t>ROLE_INSTRUCTOR</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,14 +398,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3">
+        <v>456</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>789</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/developFiles/demoUserData.xlsx
+++ b/developFiles/demoUserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\JavaProjects\LaboratoryManagementSystem\developFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AAC8C3-041F-4E76-BD19-327FDA4D0CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F78F36-0234-4F7C-872B-BA1CD4D87E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="6870" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="3540" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roleNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,15 +53,6 @@
   <si>
     <t>小红</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
-  </si>
-  <si>
-    <t>ROLE_TECHNICIAN</t>
-  </si>
-  <si>
-    <t>ROLE_INSTRUCTOR</t>
   </si>
 </sst>
 </file>
@@ -398,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -412,7 +391,7 @@
     <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,19 +401,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -442,16 +412,10 @@
       <c r="C2">
         <v>123</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -459,19 +423,10 @@
       <c r="C3">
         <v>456</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -479,37 +434,16 @@
       <c r="C4">
         <v>789</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2023</v>
       </c>
       <c r="C5">
         <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
